--- a/COVID-19-geographic-distribution-sweden-2020-03-24.xlsx
+++ b/COVID-19-geographic-distribution-sweden-2020-03-24.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,10 +435,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -447,7 +447,7 @@
         <v>2020</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -468,10 +468,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -480,7 +480,7 @@
         <v>2020</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43913</v>
+        <v>43903</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -513,31 +513,31 @@
         <v>2020</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dalarna</t>
+          <t>Blekinge</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43912</v>
+        <v>43902</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -553,12 +553,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dalarna</t>
+          <t>Blekinge</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -567,10 +567,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43911</v>
+        <v>43901</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -586,24 +586,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dalarna</t>
+          <t>Blekinge</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -612,10 +612,10 @@
         <v>2020</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -628,15 +628,15 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -645,7 +645,7 @@
         <v>2020</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -661,15 +661,15 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -678,7 +678,7 @@
         <v>2020</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -694,15 +694,15 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>2020</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43901</v>
+        <v>43908</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -744,7 +744,7 @@
         <v>2020</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -760,15 +760,15 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -777,19 +777,19 @@
         <v>2020</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Gotland</t>
+          <t>Dalarna</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -798,10 +798,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43909</v>
+        <v>43902</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -810,19 +810,19 @@
         <v>2020</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Gotland</t>
+          <t>Dalarna</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -831,10 +831,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -850,12 +850,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gotland</t>
+          <t>Dalarna</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -864,10 +864,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -876,19 +876,19 @@
         <v>2020</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Gävleborg</t>
+          <t>Gotland</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -897,10 +897,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -916,24 +916,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Gävleborg</t>
+          <t>Gotland</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43910</v>
+        <v>43902</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -949,12 +949,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Gävleborg</t>
+          <t>Gotland</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -963,10 +963,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -975,7 +975,7 @@
         <v>2020</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -991,15 +991,15 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43901</v>
+        <v>43911</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -1008,10 +1008,10 @@
         <v>2020</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43896</v>
+        <v>43910</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -1041,7 +1041,7 @@
         <v>2020</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43895</v>
+        <v>43909</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -1074,7 +1074,7 @@
         <v>2020</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -1107,19 +1107,19 @@
         <v>2020</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -1147,24 +1147,24 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -1173,19 +1173,19 @@
         <v>2020</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1194,10 +1194,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -1213,24 +1213,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -1239,19 +1239,19 @@
         <v>2020</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1260,10 +1260,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1293,10 +1293,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -1305,19 +1305,19 @@
         <v>2020</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1326,10 +1326,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43899</v>
+        <v>43896</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -1338,19 +1338,19 @@
         <v>2020</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Halland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1359,10 +1359,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43913</v>
+        <v>43895</v>
       </c>
       <c r="B31" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -1371,19 +1371,19 @@
         <v>2020</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Gävleborg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1392,10 +1392,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
         <v>3</v>
@@ -1404,19 +1404,19 @@
         <v>2020</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1425,10 +1425,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -1444,24 +1444,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
         <v>3</v>
@@ -1470,19 +1470,19 @@
         <v>2020</v>
       </c>
       <c r="E34" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1491,10 +1491,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43902</v>
+        <v>43910</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
@@ -1503,19 +1503,19 @@
         <v>2020</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1524,10 +1524,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43900</v>
+        <v>43909</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
         <v>3</v>
@@ -1536,31 +1536,31 @@
         <v>2020</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="B37" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
         <v>3</v>
@@ -1576,24 +1576,24 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n">
         <v>3</v>
@@ -1602,19 +1602,19 @@
         <v>2020</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1623,10 +1623,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C39" t="n">
         <v>3</v>
@@ -1635,19 +1635,19 @@
         <v>2020</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1656,10 +1656,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
         <v>3</v>
@@ -1668,19 +1668,19 @@
         <v>2020</v>
       </c>
       <c r="E40" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -1689,10 +1689,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
@@ -1701,23 +1701,23 @@
         <v>2020</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1734,19 +1734,19 @@
         <v>2020</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -1755,10 +1755,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43896</v>
+        <v>43900</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
         <v>3</v>
@@ -1767,19 +1767,19 @@
         <v>2020</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -1788,10 +1788,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43893</v>
+        <v>43899</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
         <v>3</v>
@@ -1800,19 +1800,19 @@
         <v>2020</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Halland</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -1821,31 +1821,31 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43889</v>
+        <v>43913</v>
       </c>
       <c r="B45" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>2020</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -1854,31 +1854,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43861</v>
+        <v>43912</v>
       </c>
       <c r="B46" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>2020</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -1887,10 +1887,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B47" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
@@ -1899,19 +1899,19 @@
         <v>2020</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -1920,10 +1920,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C48" t="n">
         <v>3</v>
@@ -1939,12 +1939,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -1953,10 +1953,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n">
         <v>3</v>
@@ -1965,19 +1965,19 @@
         <v>2020</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -1986,10 +1986,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B50" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
         <v>3</v>
@@ -1998,19 +1998,19 @@
         <v>2020</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2019,10 +2019,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
         <v>3</v>
@@ -2038,12 +2038,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2052,10 +2052,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43901</v>
+        <v>43904</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
         <v>3</v>
@@ -2064,19 +2064,19 @@
         <v>2020</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2085,10 +2085,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B53" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
@@ -2097,19 +2097,19 @@
         <v>2020</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Kronoberg</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2118,10 +2118,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
         <v>3</v>
@@ -2130,19 +2130,19 @@
         <v>2020</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Kronoberg</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2151,10 +2151,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43913</v>
+        <v>43901</v>
       </c>
       <c r="B55" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
         <v>3</v>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2184,10 +2184,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43912</v>
+        <v>43900</v>
       </c>
       <c r="B56" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
         <v>3</v>
@@ -2203,24 +2203,24 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
         <v>3</v>
@@ -2229,19 +2229,19 @@
         <v>2020</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2250,10 +2250,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B58" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C58" t="n">
         <v>3</v>
@@ -2262,31 +2262,31 @@
         <v>2020</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59" t="n">
         <v>3</v>
@@ -2302,12 +2302,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -2316,10 +2316,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43902</v>
+        <v>43910</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C60" t="n">
         <v>3</v>
@@ -2328,19 +2328,19 @@
         <v>2020</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -2349,10 +2349,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43901</v>
+        <v>43909</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
@@ -2361,19 +2361,19 @@
         <v>2020</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -2382,10 +2382,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43899</v>
+        <v>43908</v>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C62" t="n">
         <v>3</v>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2415,10 +2415,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B63" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
         <v>3</v>
@@ -2427,31 +2427,31 @@
         <v>2020</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="B64" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
         <v>3</v>
@@ -2460,31 +2460,31 @@
         <v>2020</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43911</v>
+        <v>43904</v>
       </c>
       <c r="B65" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C65" t="n">
         <v>3</v>
@@ -2493,31 +2493,31 @@
         <v>2020</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43910</v>
+        <v>43903</v>
       </c>
       <c r="B66" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
         <v>3</v>
@@ -2526,31 +2526,31 @@
         <v>2020</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43909</v>
+        <v>43902</v>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C67" t="n">
         <v>3</v>
@@ -2559,31 +2559,31 @@
         <v>2020</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43908</v>
+        <v>43901</v>
       </c>
       <c r="B68" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C68" t="n">
         <v>3</v>
@@ -2592,31 +2592,31 @@
         <v>2020</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43907</v>
+        <v>43896</v>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
         <v>3</v>
@@ -2625,31 +2625,31 @@
         <v>2020</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43906</v>
+        <v>43893</v>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
         <v>3</v>
@@ -2658,67 +2658,67 @@
         <v>2020</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43897</v>
+        <v>43889</v>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>2020</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Okänd region</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43913</v>
+        <v>43861</v>
       </c>
       <c r="B72" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>2020</v>
@@ -2731,24 +2731,24 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B73" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73" t="n">
         <v>3</v>
@@ -2757,19 +2757,19 @@
         <v>2020</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -2778,10 +2778,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C74" t="n">
         <v>3</v>
@@ -2790,31 +2790,31 @@
         <v>2020</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
         <v>3</v>
@@ -2823,31 +2823,31 @@
         <v>2020</v>
       </c>
       <c r="E75" t="n">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="B76" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C76" t="n">
         <v>3</v>
@@ -2856,31 +2856,31 @@
         <v>2020</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="B77" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
         <v>3</v>
@@ -2889,31 +2889,31 @@
         <v>2020</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C78" t="n">
         <v>3</v>
@@ -2929,24 +2929,24 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43900</v>
+        <v>43909</v>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
         <v>3</v>
@@ -2955,31 +2955,31 @@
         <v>2020</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43898</v>
+        <v>43907</v>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C80" t="n">
         <v>3</v>
@@ -2988,19 +2988,19 @@
         <v>2020</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -3009,10 +3009,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43897</v>
+        <v>43906</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
@@ -3028,12 +3028,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -3042,10 +3042,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43896</v>
+        <v>43905</v>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
         <v>3</v>
@@ -3054,19 +3054,19 @@
         <v>2020</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -3075,10 +3075,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43895</v>
+        <v>43903</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C83" t="n">
         <v>3</v>
@@ -3087,19 +3087,19 @@
         <v>2020</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -3108,10 +3108,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43894</v>
+        <v>43902</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
         <v>3</v>
@@ -3120,19 +3120,19 @@
         <v>2020</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -3141,10 +3141,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43893</v>
+        <v>43901</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>2020</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -3174,10 +3174,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43913</v>
+        <v>43900</v>
       </c>
       <c r="B86" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
         <v>3</v>
@@ -3186,31 +3186,31 @@
         <v>2020</v>
       </c>
       <c r="E86" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Kronoberg</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
         <v>3</v>
@@ -3219,31 +3219,31 @@
         <v>2020</v>
       </c>
       <c r="E87" t="n">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B88" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" t="n">
         <v>3</v>
@@ -3259,24 +3259,24 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" t="n">
         <v>3</v>
@@ -3285,31 +3285,31 @@
         <v>2020</v>
       </c>
       <c r="E89" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>2</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B90" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" t="n">
         <v>3</v>
@@ -3318,31 +3318,31 @@
         <v>2020</v>
       </c>
       <c r="E90" t="n">
-        <v>268</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B91" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" t="n">
         <v>3</v>
@@ -3351,31 +3351,31 @@
         <v>2020</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="B92" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C92" t="n">
         <v>3</v>
@@ -3384,31 +3384,31 @@
         <v>2020</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="B93" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C93" t="n">
         <v>3</v>
@@ -3417,31 +3417,31 @@
         <v>2020</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="B94" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C94" t="n">
         <v>3</v>
@@ -3450,31 +3450,31 @@
         <v>2020</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="B95" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C95" t="n">
         <v>3</v>
@@ -3483,31 +3483,31 @@
         <v>2020</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="B96" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C96" t="n">
         <v>3</v>
@@ -3516,31 +3516,31 @@
         <v>2020</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Norrbotten</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43901</v>
+        <v>43913</v>
       </c>
       <c r="B97" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
         <v>3</v>
@@ -3549,31 +3549,31 @@
         <v>2020</v>
       </c>
       <c r="E97" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43900</v>
+        <v>43912</v>
       </c>
       <c r="B98" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C98" t="n">
         <v>3</v>
@@ -3582,19 +3582,19 @@
         <v>2020</v>
       </c>
       <c r="E98" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -3603,10 +3603,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43899</v>
+        <v>43911</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C99" t="n">
         <v>3</v>
@@ -3615,19 +3615,19 @@
         <v>2020</v>
       </c>
       <c r="E99" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -3636,10 +3636,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43898</v>
+        <v>43910</v>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C100" t="n">
         <v>3</v>
@@ -3648,19 +3648,19 @@
         <v>2020</v>
       </c>
       <c r="E100" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -3669,43 +3669,43 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43897</v>
+        <v>43909</v>
       </c>
       <c r="B101" t="n">
+        <v>19</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E101" t="n">
         <v>7</v>
       </c>
-      <c r="C101" t="n">
-        <v>3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E101" t="n">
-        <v>21</v>
-      </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43896</v>
+        <v>43908</v>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C102" t="n">
         <v>3</v>
@@ -3714,31 +3714,31 @@
         <v>2020</v>
       </c>
       <c r="E102" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43895</v>
+        <v>43907</v>
       </c>
       <c r="B103" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C103" t="n">
         <v>3</v>
@@ -3747,19 +3747,19 @@
         <v>2020</v>
       </c>
       <c r="E103" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -3768,10 +3768,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43894</v>
+        <v>43906</v>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
@@ -3780,31 +3780,31 @@
         <v>2020</v>
       </c>
       <c r="E104" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43893</v>
+        <v>43905</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C105" t="n">
         <v>3</v>
@@ -3813,85 +3813,85 @@
         <v>2020</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43892</v>
+        <v>43904</v>
       </c>
       <c r="B106" t="n">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E106" t="n">
+        <v>42</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43890</v>
+        <v>43903</v>
       </c>
       <c r="B107" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
         <v>2020</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -3900,31 +3900,31 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43889</v>
+        <v>43902</v>
       </c>
       <c r="B108" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
         <v>2020</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -3933,31 +3933,31 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43888</v>
+        <v>43901</v>
       </c>
       <c r="B109" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
         <v>2020</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -3966,10 +3966,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43913</v>
+        <v>43900</v>
       </c>
       <c r="B110" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C110" t="n">
         <v>3</v>
@@ -3978,31 +3978,31 @@
         <v>2020</v>
       </c>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43912</v>
+        <v>43898</v>
       </c>
       <c r="B111" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C111" t="n">
         <v>3</v>
@@ -4011,31 +4011,31 @@
         <v>2020</v>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43911</v>
+        <v>43897</v>
       </c>
       <c r="B112" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
         <v>3</v>
@@ -4044,31 +4044,31 @@
         <v>2020</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43910</v>
+        <v>43896</v>
       </c>
       <c r="B113" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C113" t="n">
         <v>3</v>
@@ -4080,28 +4080,28 @@
         <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43909</v>
+        <v>43895</v>
       </c>
       <c r="B114" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
         <v>3</v>
@@ -4110,19 +4110,19 @@
         <v>2020</v>
       </c>
       <c r="E114" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -4131,10 +4131,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43905</v>
+        <v>43894</v>
       </c>
       <c r="B115" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
         <v>3</v>
@@ -4143,31 +4143,31 @@
         <v>2020</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43902</v>
+        <v>43893</v>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
         <v>3</v>
@@ -4176,31 +4176,31 @@
         <v>2020</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Skåne</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43901</v>
+        <v>43913</v>
       </c>
       <c r="B117" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C117" t="n">
         <v>3</v>
@@ -4209,31 +4209,31 @@
         <v>2020</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43900</v>
+        <v>43912</v>
       </c>
       <c r="B118" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C118" t="n">
         <v>3</v>
@@ -4242,31 +4242,31 @@
         <v>2020</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43899</v>
+        <v>43911</v>
       </c>
       <c r="B119" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C119" t="n">
         <v>3</v>
@@ -4275,31 +4275,31 @@
         <v>2020</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B120" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C120" t="n">
         <v>3</v>
@@ -4308,31 +4308,31 @@
         <v>2020</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B121" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C121" t="n">
         <v>3</v>
@@ -4341,31 +4341,31 @@
         <v>2020</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B122" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C122" t="n">
         <v>3</v>
@@ -4374,31 +4374,31 @@
         <v>2020</v>
       </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C123" t="n">
         <v>3</v>
@@ -4407,31 +4407,31 @@
         <v>2020</v>
       </c>
       <c r="E123" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B124" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C124" t="n">
         <v>3</v>
@@ -4440,31 +4440,31 @@
         <v>2020</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125" t="n">
         <v>3</v>
@@ -4473,31 +4473,31 @@
         <v>2020</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43901</v>
+        <v>43904</v>
       </c>
       <c r="B126" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C126" t="n">
         <v>3</v>
@@ -4506,31 +4506,31 @@
         <v>2020</v>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43899</v>
+        <v>43903</v>
       </c>
       <c r="B127" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C127" t="n">
         <v>3</v>
@@ -4539,31 +4539,31 @@
         <v>2020</v>
       </c>
       <c r="E127" t="n">
+        <v>41</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
         <v>2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Uppsala</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43898</v>
+        <v>43902</v>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C128" t="n">
         <v>3</v>
@@ -4572,19 +4572,19 @@
         <v>2020</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -4593,10 +4593,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="B129" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C129" t="n">
         <v>3</v>
@@ -4605,19 +4605,19 @@
         <v>2020</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -4626,10 +4626,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43895</v>
+        <v>43900</v>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C130" t="n">
         <v>3</v>
@@ -4638,19 +4638,19 @@
         <v>2020</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -4659,31 +4659,31 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43889</v>
+        <v>43899</v>
       </c>
       <c r="B131" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131" t="n">
         <v>2020</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -4692,43 +4692,43 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43888</v>
+        <v>43898</v>
       </c>
       <c r="B132" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Uppsala</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43912</v>
+        <v>43897</v>
       </c>
       <c r="B133" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C133" t="n">
         <v>3</v>
@@ -4737,31 +4737,31 @@
         <v>2020</v>
       </c>
       <c r="E133" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43909</v>
+        <v>43896</v>
       </c>
       <c r="B134" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C134" t="n">
         <v>3</v>
@@ -4770,31 +4770,31 @@
         <v>2020</v>
       </c>
       <c r="E134" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43907</v>
+        <v>43895</v>
       </c>
       <c r="B135" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C135" t="n">
         <v>3</v>
@@ -4803,31 +4803,31 @@
         <v>2020</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43901</v>
+        <v>43894</v>
       </c>
       <c r="B136" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
         <v>3</v>
@@ -4836,19 +4836,19 @@
         <v>2020</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -4857,43 +4857,43 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43900</v>
+        <v>43893</v>
       </c>
       <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E137" t="n">
         <v>10</v>
       </c>
-      <c r="C137" t="n">
-        <v>3</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43899</v>
+        <v>43892</v>
       </c>
       <c r="B138" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
         <v>3</v>
@@ -4909,12 +4909,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -4923,31 +4923,31 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43898</v>
+        <v>43890</v>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
         <v>2020</v>
       </c>
       <c r="E139" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -4956,31 +4956,31 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43896</v>
+        <v>43889</v>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
         <v>2020</v>
       </c>
       <c r="E140" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -4989,31 +4989,31 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43895</v>
+        <v>43888</v>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
         <v>2020</v>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -5022,10 +5022,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43894</v>
+        <v>43913</v>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C142" t="n">
         <v>3</v>
@@ -5034,19 +5034,19 @@
         <v>2020</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Värmland</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -5055,10 +5055,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B143" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C143" t="n">
         <v>3</v>
@@ -5067,31 +5067,31 @@
         <v>2020</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B144" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C144" t="n">
         <v>3</v>
@@ -5100,31 +5100,31 @@
         <v>2020</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B145" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145" t="n">
         <v>3</v>
@@ -5133,31 +5133,31 @@
         <v>2020</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B146" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C146" t="n">
         <v>3</v>
@@ -5166,19 +5166,19 @@
         <v>2020</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -5187,10 +5187,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B147" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147" t="n">
         <v>3</v>
@@ -5199,19 +5199,19 @@
         <v>2020</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -5220,10 +5220,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B148" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C148" t="n">
         <v>3</v>
@@ -5235,28 +5235,28 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B149" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C149" t="n">
         <v>3</v>
@@ -5265,19 +5265,19 @@
         <v>2020</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -5286,10 +5286,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43899</v>
+        <v>43905</v>
       </c>
       <c r="B150" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C150" t="n">
         <v>3</v>
@@ -5298,31 +5298,31 @@
         <v>2020</v>
       </c>
       <c r="E150" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="B151" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C151" t="n">
         <v>3</v>
@@ -5331,19 +5331,19 @@
         <v>2020</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -5352,10 +5352,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B152" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C152" t="n">
         <v>3</v>
@@ -5364,19 +5364,19 @@
         <v>2020</v>
       </c>
       <c r="E152" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -5385,10 +5385,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153" t="n">
         <v>3</v>
@@ -5397,31 +5397,31 @@
         <v>2020</v>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C154" t="n">
         <v>3</v>
@@ -5430,19 +5430,19 @@
         <v>2020</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -5451,10 +5451,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43913</v>
+        <v>43900</v>
       </c>
       <c r="B155" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C155" t="n">
         <v>3</v>
@@ -5463,19 +5463,19 @@
         <v>2020</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Västmanland</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -5484,10 +5484,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43912</v>
+        <v>43899</v>
       </c>
       <c r="B156" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C156" t="n">
         <v>3</v>
@@ -5496,19 +5496,19 @@
         <v>2020</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Västmanland</t>
+          <t>Södermanland</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -5517,10 +5517,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B157" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C157" t="n">
         <v>3</v>
@@ -5529,31 +5529,31 @@
         <v>2020</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Västmanland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B158" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C158" t="n">
         <v>3</v>
@@ -5562,31 +5562,31 @@
         <v>2020</v>
       </c>
       <c r="E158" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Västmanland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43901</v>
+        <v>43911</v>
       </c>
       <c r="B159" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C159" t="n">
         <v>3</v>
@@ -5595,19 +5595,19 @@
         <v>2020</v>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Västmanland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -5616,10 +5616,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="B160" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C160" t="n">
         <v>3</v>
@@ -5628,19 +5628,19 @@
         <v>2020</v>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -5649,10 +5649,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="B161" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C161" t="n">
         <v>3</v>
@@ -5661,19 +5661,19 @@
         <v>2020</v>
       </c>
       <c r="E161" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -5682,10 +5682,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B162" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C162" t="n">
         <v>3</v>
@@ -5694,31 +5694,31 @@
         <v>2020</v>
       </c>
       <c r="E162" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="B163" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C163" t="n">
         <v>3</v>
@@ -5727,19 +5727,19 @@
         <v>2020</v>
       </c>
       <c r="E163" t="n">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -5748,10 +5748,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B164" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C164" t="n">
         <v>3</v>
@@ -5760,19 +5760,19 @@
         <v>2020</v>
       </c>
       <c r="E164" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -5781,10 +5781,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43900</v>
+        <v>43904</v>
       </c>
       <c r="B165" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C165" t="n">
         <v>3</v>
@@ -5793,19 +5793,19 @@
         <v>2020</v>
       </c>
       <c r="E165" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -5814,10 +5814,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43899</v>
+        <v>43903</v>
       </c>
       <c r="B166" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C166" t="n">
         <v>3</v>
@@ -5826,31 +5826,31 @@
         <v>2020</v>
       </c>
       <c r="E166" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43898</v>
+        <v>43902</v>
       </c>
       <c r="B167" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C167" t="n">
         <v>3</v>
@@ -5859,19 +5859,19 @@
         <v>2020</v>
       </c>
       <c r="E167" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -5880,10 +5880,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C168" t="n">
         <v>3</v>
@@ -5892,19 +5892,19 @@
         <v>2020</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -5913,10 +5913,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43895</v>
+        <v>43899</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C169" t="n">
         <v>3</v>
@@ -5925,19 +5925,19 @@
         <v>2020</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -5946,10 +5946,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43894</v>
+        <v>43898</v>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C170" t="n">
         <v>3</v>
@@ -5958,19 +5958,19 @@
         <v>2020</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -5979,10 +5979,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43893</v>
+        <v>43896</v>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
         <v>3</v>
@@ -5991,19 +5991,19 @@
         <v>2020</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -6012,10 +6012,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43891</v>
+        <v>43895</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C172" t="n">
         <v>3</v>
@@ -6024,19 +6024,19 @@
         <v>2020</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -6045,10 +6045,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="B173" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C173" t="n">
         <v>2</v>
@@ -6064,12 +6064,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -6090,19 +6090,19 @@
         <v>2020</v>
       </c>
       <c r="E174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -6111,13 +6111,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43887</v>
+        <v>43913</v>
       </c>
       <c r="B175" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175" t="n">
         <v>2020</v>
@@ -6130,12 +6130,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -6156,19 +6156,19 @@
         <v>2020</v>
       </c>
       <c r="E176" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -6177,10 +6177,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C177" t="n">
         <v>3</v>
@@ -6189,23 +6189,23 @@
         <v>2020</v>
       </c>
       <c r="E177" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -6222,19 +6222,19 @@
         <v>2020</v>
       </c>
       <c r="E178" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -6243,10 +6243,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43901</v>
+        <v>43907</v>
       </c>
       <c r="B179" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C179" t="n">
         <v>3</v>
@@ -6255,31 +6255,31 @@
         <v>2020</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43900</v>
+        <v>43906</v>
       </c>
       <c r="B180" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C180" t="n">
         <v>3</v>
@@ -6295,12 +6295,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -6309,10 +6309,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43898</v>
+        <v>43903</v>
       </c>
       <c r="B181" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C181" t="n">
         <v>3</v>
@@ -6328,12 +6328,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I181" t="n">
@@ -6342,10 +6342,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43894</v>
+        <v>43902</v>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C182" t="n">
         <v>3</v>
@@ -6354,19 +6354,19 @@
         <v>2020</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -6375,10 +6375,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43913</v>
+        <v>43901</v>
       </c>
       <c r="B183" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C183" t="n">
         <v>3</v>
@@ -6387,19 +6387,19 @@
         <v>2020</v>
       </c>
       <c r="E183" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -6408,10 +6408,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43912</v>
+        <v>43900</v>
       </c>
       <c r="B184" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C184" t="n">
         <v>3</v>
@@ -6420,19 +6420,19 @@
         <v>2020</v>
       </c>
       <c r="E184" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I184" t="n">
@@ -6441,10 +6441,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43910</v>
+        <v>43899</v>
       </c>
       <c r="B185" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C185" t="n">
         <v>3</v>
@@ -6453,19 +6453,19 @@
         <v>2020</v>
       </c>
       <c r="E185" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I185" t="n">
@@ -6474,10 +6474,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43909</v>
+        <v>43898</v>
       </c>
       <c r="B186" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C186" t="n">
         <v>3</v>
@@ -6486,31 +6486,31 @@
         <v>2020</v>
       </c>
       <c r="E186" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43908</v>
+        <v>43896</v>
       </c>
       <c r="B187" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C187" t="n">
         <v>3</v>
@@ -6519,31 +6519,31 @@
         <v>2020</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43906</v>
+        <v>43895</v>
       </c>
       <c r="B188" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
         <v>3</v>
@@ -6552,31 +6552,31 @@
         <v>2020</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="B189" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C189" t="n">
         <v>3</v>
@@ -6585,19 +6585,19 @@
         <v>2020</v>
       </c>
       <c r="E189" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Värmland</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I189" t="n">
@@ -6606,34 +6606,2575 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B190" t="n">
+        <v>23</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B191" t="n">
+        <v>22</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>43911</v>
+      </c>
+      <c r="B192" t="n">
+        <v>21</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B193" t="n">
+        <v>20</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B194" t="n">
+        <v>19</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B195" t="n">
+        <v>18</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B196" t="n">
+        <v>17</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>43904</v>
+      </c>
+      <c r="B198" t="n">
+        <v>14</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B199" t="n">
+        <v>13</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>43901</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
         <v>43899</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B201" t="n">
         <v>9</v>
       </c>
-      <c r="C190" t="n">
-        <v>3</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="inlineStr">
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B202" t="n">
+        <v>20</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B203" t="n">
+        <v>19</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B204" t="n">
+        <v>17</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B205" t="n">
+        <v>16</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B206" t="n">
+        <v>13</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B207" t="n">
+        <v>12</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>43900</v>
+      </c>
+      <c r="B208" t="n">
+        <v>10</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B209" t="n">
+        <v>23</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B210" t="n">
+        <v>20</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B211" t="n">
+        <v>18</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B212" t="n">
+        <v>17</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B213" t="n">
+        <v>15</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B214" t="n">
+        <v>13</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>43901</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B217" t="n">
+        <v>23</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B218" t="n">
+        <v>22</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E218" t="n">
+        <v>8</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>43911</v>
+      </c>
+      <c r="B219" t="n">
+        <v>21</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E219" t="n">
+        <v>14</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B220" t="n">
+        <v>20</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E220" t="n">
+        <v>21</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B221" t="n">
+        <v>19</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E221" t="n">
+        <v>8</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B222" t="n">
+        <v>18</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E222" t="n">
+        <v>20</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B223" t="n">
+        <v>17</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B224" t="n">
+        <v>16</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E224" t="n">
+        <v>17</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B225" t="n">
+        <v>15</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>43904</v>
+      </c>
+      <c r="B226" t="n">
+        <v>14</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E226" t="n">
+        <v>21</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B227" t="n">
+        <v>13</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E227" t="n">
+        <v>18</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E228" t="n">
+        <v>31</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>43901</v>
+      </c>
+      <c r="B229" t="n">
+        <v>11</v>
+      </c>
+      <c r="C229" t="n">
+        <v>3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E229" t="n">
+        <v>37</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>43900</v>
+      </c>
+      <c r="B230" t="n">
+        <v>10</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E230" t="n">
+        <v>15</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>43899</v>
+      </c>
+      <c r="B231" t="n">
+        <v>9</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>43898</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E232" t="n">
+        <v>12</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>43897</v>
+      </c>
+      <c r="B233" t="n">
+        <v>7</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>43896</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>43895</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>43894</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>43893</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E237" t="n">
+        <v>3</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>43890</v>
+      </c>
+      <c r="B239" t="n">
+        <v>29</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>43888</v>
+      </c>
+      <c r="B240" t="n">
+        <v>27</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>43887</v>
+      </c>
+      <c r="B241" t="n">
+        <v>26</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B242" t="n">
+        <v>23</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B243" t="n">
+        <v>22</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>43911</v>
+      </c>
+      <c r="B244" t="n">
+        <v>21</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B245" t="n">
+        <v>20</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E245" t="n">
+        <v>6</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B246" t="n">
+        <v>19</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B247" t="n">
+        <v>17</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E247" t="n">
+        <v>10</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B248" t="n">
+        <v>16</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>43904</v>
+      </c>
+      <c r="B249" t="n">
+        <v>14</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B250" t="n">
+        <v>12</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>43901</v>
+      </c>
+      <c r="B251" t="n">
+        <v>11</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>43900</v>
+      </c>
+      <c r="B252" t="n">
+        <v>10</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>43898</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>43894</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B255" t="n">
+        <v>23</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E255" t="n">
+        <v>24</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="inlineStr">
         <is>
           <t>Östergötland</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="I190" t="n">
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B256" t="n">
+        <v>22</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E256" t="n">
+        <v>11</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>43911</v>
+      </c>
+      <c r="B257" t="n">
+        <v>21</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E257" t="n">
+        <v>5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B258" t="n">
+        <v>20</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E258" t="n">
+        <v>33</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B259" t="n">
+        <v>19</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E259" t="n">
+        <v>36</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B260" t="n">
+        <v>18</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E260" t="n">
+        <v>10</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B261" t="n">
+        <v>17</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E261" t="n">
+        <v>7</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B262" t="n">
+        <v>16</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E262" t="n">
+        <v>8</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B263" t="n">
+        <v>15</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>43904</v>
+      </c>
+      <c r="B264" t="n">
+        <v>14</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B265" t="n">
+        <v>13</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E265" t="n">
+        <v>6</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B266" t="n">
+        <v>12</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E266" t="n">
+        <v>10</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>43899</v>
+      </c>
+      <c r="B267" t="n">
+        <v>9</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
